--- a/js/002.xlsx
+++ b/js/002.xlsx
@@ -334,14 +334,14 @@
   <dimension ref="H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
